--- a/500all/speech_level/speeches_CHRG-114hhrg94223.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="358">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Good afternoon. I want to welcome everybody to the Strategic Forces Subcommittee hearing on assured access to space. We will be conducting two panels today.    In the first panel, we have two expert witnesses from industry who represent our current and projected near-term providers of national security space launch in the Evolved Expendable Launch Vehicle [EELV] program.    In our second panel, we have three senior government officials who have responsibilities over EELV program and one advisor to the government.    Testifying on Panel 1 is Mr. Tory Bruno, President and CEO [Chief Executive Officer] of United Launch Alliance [ULA], and Ms. Gwynne Shotwell, President and Chief Operating Officer of Space Exploration Technologies Corporation [SpaceX].    We appreciate you both taking the time to be here today and offer your perspectives, including the challenges and opportunities related to our national security space launch activities.    In this job as chairman of the Subcommittee on Strategic Forces, I have come to more fully appreciate the importance of our space to our country. It is one of the underpinnings of our national security.    Let me provide an example. If a foreign adversary was to launch an intercontinental ballistic missile at our country, our military would rapidly detect this missile launch through our Space-Based Infrared System satellites, and the information would be provided to our highest national command authorities to appropriately respond.    Such response would almost certainly be transmitted across space-based communications satellites to combatant commanders all over the world, who would order our military forces to take action, and those troops would rely on space-based intelligence surveillance and reconnaissance capabilities and communication capabilities to perform their mission and return home safely.    These are extremely important capabilities that American lives may literally depend upon. We can't have space capabilities like this without an effective launch program. This is literally rocket science. So, one of my top priorities in this job is to make sure that we have assured access to space both now and in the future.    We have come a long way since the late 1990s, when we went through a span of 10 months and suffered five launch vehicle failures. Since 2006, we have benefitted from an unparalleled record of success through the Air Force partnership with United Launch Alliance with 78 successful launches in the Evolved Expendable Launch Vehicle program.    Most recently this partnership has also brought tremendous savings to the taxpayers, $4.4 billion, according to the Air Force, as a result of a 36-rocket core block-buy contract.    Now we are once again entering into a new phase for the EELV. We are transitioning to a more competitive environment. Many steps have been taken by the government, including Congress and the Department of Defense, to encourage this.    Congress provided funding that was dedicated to new entrants for the two launches. SpaceX was awarded both of those contracts. And the Air Force has spent nearly $60 million and allocated more than 100 government employees to help certify SpaceX for the EELV program, which it may do in the near months ahead.    We look forward to competition in the EELV program because that will achieve the best outcome for the benefit of our taxpayers and our warfighters.    Lastly, it is extremely important that we work to transition off relying on Russian engines for national security launch purposes. The intention of the fiscal year 2015 NDAA [National Defense Authorization Act] was to provide a reasonable transition. Section 1608 language regarding prohibition of procuring Russian rocket engines included specific exceptions and waivers.    We intended to allow the use of the Russian engines that we understood to be on contract through the period of time that we believed would allow for the development of the new U.S. engine. My understanding is the Department of Defense may not be interpreting it the same way. This remains an issue that we look forward to understanding better today.    Regarding the development of a new engine, I understand this will take time. But I believe in our U.S. history, and I believe that once the men and women in the Department of Defense have the red tape eliminated, we can do this expediently, effectively, and efficiently. We should take the lowest risk approach that is in accordance with the terms of section 1604 of the fiscal year 2015 NDAA.    Thank you again for being with us today regarding this important topic. I look forward to your testimony.    I now recognize my friend and colleague from Tennessee, Mr. Cooper, for an opening statement.    [The prepared statement of Mr. Rogers can be found in the Appendix on page 53.]</t>
   </si>
   <si>
     <t>400081</t>
   </si>
   <si>
-    <t>Jim Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman.    In view of the lateness of the hour, since this hearing was delayed almost 45 minutes due to votes, I ask unanimous consent that I insert my opening statement in the record.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Bruno</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bruno. Thank you, Chairman Rogers, Ranking Member Cooper, members of the subcommittee. Thank you very much for inviting me here this evening. I look forward to talking about the EELV program, the future of space launch, and how I am transforming the United Launch Alliance to meet this new environment.    In changing our company, I have asked our team to focus on four basic goals. First and foremost, to substantially reduce the cost of launch. Secondly, to move expeditiously and quickly towards an American rocket engine replacement so that we may retire the venerable and advanced technology, Russian RD-180.    We are going to do this while maintaining our unique capability to launch the entire suite of national security space satellites, a capability that no other provider has the technical ability to perform.    And then, finally, we are going to do all this without losing our laser focus on mission success, something we feel also sets us apart in this marketplace.    I would like to say a couple of words about our path to an American rocket engine. We entered into a strategic partnership with Blue Origin late last year, a company founded by Amazon founder Jeff Bezos.    There are a number of reasons why that engine was attractive to us from a technology point of view, but I will admit that first and foremost in my mind was the urgency I felt to move towards an American rocket engine.    The BE-4 Blue Origin engine is 3 years into its development path and offered the most expeditious track to an American engine replacement. It is a methane engine and offers novel technology and advanced manufacturing techniques that promise to substantially reduce cost.    But as a person who has done rocket development for 30 years, I can tell you that it is difficult and rocket engines are the hardest part. And the history of rocket engine development is common with the occurrence of technical challenges and those that often affect schedule. So prudence required that I have a backup plan.    So we have also entered into a partnership with Aerojet Rocketdyne for their AR-1 engine with a more conventional kerosene-based fuel. You could argue that the technical risk of that approach is lower because the fuel is more common in the industry. However, that engine is 1 to 2 years behind the Blue Origin engine.    And so we will continue both of these until we down select in about the 2016, 2017 timeframe, when sufficient testing data has been available for us to make an informed decision. I have gone to my board of directors and asked for this to be funded privately so that we can move out smartly and do both of these activities.    Now, we will place this engine underneath the next generation of launch vehicles that will continue to provide that complete support to all of the national security space satellites, to all of their intended orbits, but we will also expand our performance capability so that we are able to meet the challenges that might arise in the future as the country finds new needs to be coped with in space.    I will also substantially reduce the cost of our infrastructure by streamlining our product line and streamlining our facilities and our other launch infrastructure.    So today we maintain a fleet of 16 different rockets. Other providers may have a single rocket or two rockets. We fly 16 variants in order to cover that entire span of national security space requirements. But within that fleet of 16, there are 2 redundant systems.    The Delta IV medium class is entirely redundant to the Atlas V class in terms of its performance. We have maintained these two systems all this time in order to satisfy the country's need for assured access, which is to say two independent systems so that, in the event that there might be a failure or a flaw in one system, there would still be a second system able to launch our critical national security assets.    In this new environment where the policy has changed to assure access through the existence of two providers, I will now retire the Delta medium class of space launch vehicles when we have completed our current requirements within the manifest and that team and that infrastructure will be consolidated into Atlas, creating considerable savings to our offerings.    I will also consolidate our pads. Today we have five launch pads to support this work. We are going to consolidate to two pads, one on each coast. We are going to do that by bringing in innovative designs to the pads that will allow them to be mission-agnostic, flexible, and handle the volume of lift that is currently requiring five.    And we are going to revolutionize the way people come to us to purchase launch services. We are going to introduce a standard launch offering, fixed price, priced in advance, that customers can buy and then add to that, if they desire, standard options also at a pre-priced.    It will literally be like going to a Web site and building your own rocket. It will completely change the way launch services are purchased. Together, with all of these changes and innovations, we will substantially reduce the price of launch from where it is today.    I would also like to say a couple words about reliability. We enjoy an unprecedented perfect mission success record of 94 consecutive flights, all of which were on time and, by the way, all of which were on or under budget.    This is a record no one has yet to match. And, from our perspective, when you are launching national security missions, some of which are multi-billion-dollar, one-of-a-kind assets upon which lives depend, reliability matters.    And so, in this environment, I am very excited about the changes in our industry. Competition is now possible. I believe competition is good for the taxpayer. I believe it is healthy for the industry. And I am looking forward to taking that field and putting my team there because I am confident that we can win.    [The prepared statement of Mr. Bruno can be found in the Appendix on page 57.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you very much.    Ms. Shotwell, thank you very much for being here. You are recognized.</t>
   </si>
   <si>
-    <t>Shotwell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Shotwell. Mr. Chairman, Ranking Member Cooper, and members of the subcommittee, thank you for the opportunity to appear before this committee today. In addition to my opening statement, I have prepared a detailed written statement which I have submitted for the record.    Mr. Chairman, every day I go to work with the best and the brightest engineers, technicians, and support staff in the world, over 4,000 of them now, and I can tell you that they are prepared to support our Nation's most critical launches. Those who say that U.S. engineers can't compete or that continued foreign reliance is the only way forward are wrong.    The SpaceX mission from day one has been to leverage American innovation and technical know-how to provide the most reliable space launch systems in history. We seek to serve the Nation by offering these systems for national security launches.    To date, the SpaceX Falcon 9 launch vehicle has flown successfully 16 consecutive times for a sophisticated array of U.S. Government and commercial customers, including the Air Force. I am highly confident that the Falcon 9 will be certified for the Air Force's EELV-class missions by June of this year.    Later this year we intend to fly the Falcon Heavy, which will double the lift capability of any rocket currently flying. We believe that this vehicle, which has a great commonality with the current Falcon 9, can be certified in relatively short order.    The subcommittee's hearing today on assured access is timely. National policy law rightly calls for two completely independent launch systems that can lift the full spectrum of national security payloads. Due to the common upper stage engines flown between Atlas and Delta, Russian reliance, and only one heavy-lift rocket, we do not have assured access today.    Even without assured access, the cost of the EELV program has become unsustainable. According to the GAO [Government Accountability Office], the price per EELV launch has quadrupled, from $100 [million] to nearly $400 million.    But I want to focus my testimony today on what I believe to be constructive solutions to achieve assured access.    First, the United States does not need more Russian engines to get national security space payloads to orbit with the Falcon 9 and the Delta, both all-American rockets, available. The notion of a capability gap is just not true.    It is noteworthy that the head of Russia's space enterprise, Dmitry Rogozin, has publicly stated that funds received from the United States for the RD-180 is free money that goes to the Russian missile program. How do we justify buying more and funding the Russian military?    Second, continue to pursue a policy of assured access through genuine competition between multiple qualified providers with redundant, truly dissimilar launch vehicle systems.    Third, eliminate the costly, inefficient, and ineffective launch capabilities contract to the incumbent. In the meantime, these subsidies must be accounted for if you are to have true and real competition.    Finally, Congress can structure engine development efforts to maximize smart investment. Government money is best spent against unique government mission requirements that otherwise would not be developed by a commercial provider.    Mr. Chairman, again, thank you. As a nation, we stand on the cusp of having real competition for national security space launches. SpaceX, with our all-American Falcon 9 and Falcon Heavy, looks forward to contributing to the Nation's assured access to space.    I am pleased to address any questions that you have.    [The prepared statement of Ms. Shotwell can be found in the Appendix on page 67.]</t>
   </si>
   <si>
@@ -217,9 +205,6 @@
     <t>400029</t>
   </si>
   <si>
-    <t>Rob Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman.    Ms. Shotwell, if I could ask you a couple questions. First of all, thank you for being here and the expertise that you bring.    The chairman did, as is customary, invite Mr. Musk, who is head of the company, to be here. So the questions I actually have are for him. But since he decided not to be here and manage his schedule to be with us, let me ask you the questions, since you are representing him.    I was reading in Space News an article in January that was entitled ``Musk Questions Integrity of the U.S. Air Force Certification Process.'' The quote he gave in the article was, ``The people fighting it''--meaning the Falcon 9 certification--``are really in the bureaucracy of the Pentagon and the procurement officers, who then go and work at Boeing and Lockheed Martin, the prime contractors, which has actually happened. It is easy to understand from a game theory standpoint, especially when you are asking them to award a contract to a company where they are probably not going to get a job against a company where their friends are. So they have got to go against their friends and their future retirement program. This is a difficult thing to expect.''    Now, I don't necessarily presuppose that these are your opinions, anyway, as well, but the head of SpaceX, which is your company, appears to believe that some of the people who are in service in the Air Force and Department of Defense, many career employees, may be holding back on certification because they have friends somewhere else and they want to work there later.    So I please ask you if you could explain this statement to me. Because while Mr. Musk may find it easy to understand, I frankly find it very troubling.</t>
   </si>
   <si>
@@ -286,9 +271,6 @@
     <t xml:space="preserve">    Mr. Rogers. I thank the gentleman.    The chair now recognizes Mr. Takai for 5 minutes for any questions he may have.</t>
   </si>
   <si>
-    <t>Takai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takai. Thank you, Mr. Chairman.    Mr. Bruno, United Launch Alliance has a very impressive launch success, and I just wanted to thank you and your employees and commend you for this success.    This hearing concerns the matter of assured access to space, and the national policy in law requires two separate vehicle systems that can execute 100 percent of the national security launch requirements.    What do you suggest we do to fulfill this legal requirement?</t>
   </si>
   <si>
@@ -343,9 +325,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    Ms. Shotwell, I am aware that your company is concerned that the EELV launch capability contract will provide possibly an unfair advantage to your competitor, ULA. But, like ULA, your company does have other government contracts. In fact, your company receives money from NASA for the Falcon 9, Version 1.1, I believe.</t>
   </si>
   <si>
@@ -388,9 +367,6 @@
     <t>400356</t>
   </si>
   <si>
-    <t>Loretta Sanchez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Sanchez. Thank you, Mr. Chairman.    The more I learn, the more confused I get. I just would mention that a few years ago I was over with the French counterpart of these two companies. And they were telling me that their launch costs about $200 million equivalent, and they said they weren't worried about UAL, but could I get rid of SpaceX because they were going to drive them out of business. So I see why we have kind of a confrontation going on here.    Mr. Bruno, I understand the reason that you have given for the use of the Russian RD-180 engine. I am one of those persons that works consistently in NATO and is very worried about what is happening with Russia, and I think that it is high time that we develop our own engine here or have it or, in the case of SpaceX, I guess we have developed it.    Somebody told me that it was going to be $1 [billion] or $2 billion additional government moneys invested into building this new engine. Is that around the right realm?</t>
   </si>
   <si>
@@ -445,9 +421,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    Of course, with all these questions, there is often going to be some degree of overlap.    Mr. Bruno, how many launches has ULA done?</t>
   </si>
   <si>
@@ -529,9 +502,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    Mr. Bruno, just a question regarding the Delta retirement process. Do you have a timeline for that?</t>
   </si>
   <si>
@@ -769,15 +739,9 @@
     <t xml:space="preserve">    Mr. Rogers. All right. So, Ms. McFarland, I will start with you. Your entire statements will be submitted for the record. If you could take 3 minutes to kind of summarize it, and we are going to do the same thing for all of you, 3 minutes each and then we will get into the Q and A and hopefully some more discussion type of an environment.    But anyway, Ms. McFarland, you are recognized for 3 minutes to summarize your statement.</t>
   </si>
   <si>
-    <t>McFarland</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary McFarland. Thank you, Chairman Rogers, Ranking Member Cooper, and distinguished members of the committee. I appreciate the opportunity to appear today before this subcommittee.    The Department's highest priority for space launch is assured access to space. That requires two highly reliable engine launch systems as a fail-safe method to allow for continued access should one suffer a fleet grounding event. If we do not have an alternative launch system, all our overhead space operations that provide capabilities such as global awareness, communications, strategic missile warnings and indications, and position, navigation, and timing information are at risk.    We are dependent upon assured access to space as the enabler of space operations that we rely on for national security. We can recognize, however, that the assured access to space must come at an affordable price, and that is why we intend to pursue affordability and a healthy industrial base by incentivizing innovation through an orderly transition to competition via certified new entrants. I state orderly transition, as moving to competition must not occur at the reduction or expense of mission assurance. We lost sight of mission assurance in the 1990s and that led to a string of launch failures, where more than $5 billion worth of hardware and three national security payloads were lost. We can't afford to repeat that.    When speaking of new entrants, it is important to understand that certification is a cornerstone of our mission assurance process. We have invested heavily through the Air Force in providing a means for certification to new entrants, and it appears to be paying off as our first new entrant, in this case SpaceX, according to the Air Force as the certificating authority should be certified this year.    My last emphasis will be on our commitment to end use by our providers on the Russian RD-180 engines as we pursue our competition of competitive launch services. The Air Force has been working with industry and subject matter experts since last year early to find an alternative solution. We are concerned about the current fiscal year 2015 NDAA section 1608 language. It may interfere with our ability to transition in an orderly and efficient manner to two domestically produced affordable and effective certified launch systems in a competition that can sustain our full launch manifest requirements. As it is written, it may result in a trade of one monopoly to another.    We are committed to reintroducing competition into the EELV program and ending the use of the RD-180 as quickly and as safely as possible. Space launch is an inherently unforgiving, high-risk endeavor, which our approach to mission assurance has effectively mitigated for over 15 years. As we move forward into a more competitive environment, we will continue to maintain our robust mission-assurance standards because the cost of failure is simply too high.    Thank you, again, for this opportunity to appear before the subcommittee, and I turn it over now to my colleague.</t>
   </si>
   <si>
-    <t>LaPlante</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. LaPlante. Thank you, Ms. McFarland.    [The prepared statement of Secretary McFarland can be found in the Appendix on page 88.]</t>
   </si>
   <si>
@@ -956,9 +920,6 @@
   </si>
   <si>
     <t>412271</t>
-  </si>
-  <si>
-    <t>Mike Coffman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Ms. McFarland and Dr. LaPlante, given the importance associated with the payloads we are talking about here, I think is described by General Hyten, do you agree that any future launch contracts should put a premium on full certification based on demonstrated launch success?</t>
@@ -1525,11 +1486,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1549,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1577,11 +1534,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1603,11 +1558,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1627,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1655,11 +1606,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1679,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1707,11 +1654,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1731,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1759,11 +1702,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1783,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1811,11 +1750,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1835,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1863,11 +1798,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1887,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1915,11 +1846,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1939,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1967,11 +1894,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1991,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2019,11 +1942,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2043,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2071,11 +1990,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2095,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2123,11 +2038,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2147,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2175,11 +2086,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2199,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2227,11 +2134,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2251,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2279,11 +2182,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2303,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2331,11 +2230,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2355,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2383,11 +2278,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2407,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2435,11 +2326,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2459,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2487,11 +2374,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2511,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2539,11 +2422,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2563,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2589,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2615,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2641,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2667,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2693,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2719,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2747,11 +2614,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2771,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2797,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2823,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2849,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2875,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>67</v>
-      </c>
-      <c r="H54" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2901,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2927,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2953,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2979,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3005,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3031,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3057,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3083,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3109,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3135,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3161,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3187,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3213,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3239,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3265,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3291,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" t="s">
-        <v>67</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3319,11 +3142,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3343,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3369,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3395,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3421,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3447,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3473,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3499,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3525,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3551,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3577,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3603,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3629,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3655,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3681,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3707,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3733,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3761,11 +3550,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3785,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3811,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3837,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3863,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3889,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3915,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3941,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>109</v>
-      </c>
-      <c r="H95" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3967,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3993,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4019,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4045,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>108</v>
-      </c>
-      <c r="G99" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4071,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4099,11 +3862,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4123,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
-      </c>
-      <c r="G102" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4149,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4175,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>123</v>
-      </c>
-      <c r="G104" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4201,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4227,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G106" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4253,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4279,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
+        <v>116</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>123</v>
-      </c>
-      <c r="G108" t="s">
-        <v>124</v>
-      </c>
-      <c r="H108" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4305,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4331,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
-      </c>
-      <c r="G110" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>124</v>
-      </c>
-      <c r="H110" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4357,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4383,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>123</v>
-      </c>
-      <c r="G112" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4409,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4435,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>123</v>
-      </c>
-      <c r="G114" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4461,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4487,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>123</v>
-      </c>
-      <c r="G116" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4513,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4539,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>123</v>
-      </c>
-      <c r="G118" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4567,11 +4294,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4591,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4617,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4643,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
-      </c>
-      <c r="G122" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4669,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4695,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>142</v>
-      </c>
-      <c r="G124" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4721,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4747,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>142</v>
-      </c>
-      <c r="G126" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4773,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4799,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
+        <v>134</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
         <v>142</v>
-      </c>
-      <c r="G128" t="s">
-        <v>143</v>
-      </c>
-      <c r="H128" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4825,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4851,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>142</v>
-      </c>
-      <c r="G130" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4877,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4903,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>142</v>
-      </c>
-      <c r="G132" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4929,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4955,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>142</v>
-      </c>
-      <c r="G134" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4981,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5007,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>142</v>
-      </c>
-      <c r="G136" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5033,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5059,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>142</v>
-      </c>
-      <c r="G138" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5085,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5111,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>142</v>
-      </c>
-      <c r="G140" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5137,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5163,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>142</v>
-      </c>
-      <c r="G142" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5189,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5215,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>142</v>
-      </c>
-      <c r="G144" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5241,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5267,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>142</v>
-      </c>
-      <c r="G146" t="s">
-        <v>143</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5295,11 +4966,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5319,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>170</v>
-      </c>
-      <c r="G148" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5345,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5371,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>170</v>
-      </c>
-      <c r="G150" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5397,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5423,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>170</v>
-      </c>
-      <c r="G152" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5449,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5475,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>170</v>
-      </c>
-      <c r="G154" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5501,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5527,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
+        <v>161</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
         <v>170</v>
-      </c>
-      <c r="G156" t="s">
-        <v>171</v>
-      </c>
-      <c r="H156" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5553,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5579,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>170</v>
-      </c>
-      <c r="G158" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5605,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5631,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>170</v>
-      </c>
-      <c r="G160" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5657,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5683,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>170</v>
-      </c>
-      <c r="G162" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5709,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5735,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>170</v>
-      </c>
-      <c r="G164" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5761,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5787,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>170</v>
-      </c>
-      <c r="G166" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5813,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5839,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>170</v>
-      </c>
-      <c r="G168" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5865,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5891,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>170</v>
-      </c>
-      <c r="G170" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5919,11 +5542,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5943,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5971,11 +5590,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5995,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6023,11 +5638,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6047,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6075,11 +5686,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>12</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6099,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6127,11 +5734,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6151,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6179,11 +5782,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>12</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6203,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6231,11 +5830,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>12</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6255,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6283,11 +5878,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>12</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6307,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6335,11 +5926,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6359,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6387,11 +5974,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6411,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6439,11 +6022,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>12</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6463,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6491,11 +6070,9 @@
       <c r="F193" t="s">
         <v>11</v>
       </c>
-      <c r="G193" t="s">
-        <v>12</v>
-      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6515,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6543,11 +6118,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6567,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6595,11 +6166,9 @@
       <c r="F197" t="s">
         <v>11</v>
       </c>
-      <c r="G197" t="s">
-        <v>12</v>
-      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6619,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6647,11 +6214,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6671,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
-      </c>
-      <c r="G200" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6699,11 +6262,9 @@
       <c r="F201" t="s">
         <v>11</v>
       </c>
-      <c r="G201" t="s">
-        <v>12</v>
-      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6723,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
-      </c>
-      <c r="G202" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6751,11 +6310,9 @@
       <c r="F203" t="s">
         <v>11</v>
       </c>
-      <c r="G203" t="s">
-        <v>12</v>
-      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6775,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>19</v>
-      </c>
-      <c r="G204" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6803,11 +6358,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6827,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
-      </c>
-      <c r="G206" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6855,11 +6406,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6879,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>19</v>
-      </c>
-      <c r="G208" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6907,11 +6454,9 @@
       <c r="F209" t="s">
         <v>11</v>
       </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6931,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
-      </c>
-      <c r="G210" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6959,11 +6502,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6983,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>19</v>
-      </c>
-      <c r="G212" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7011,11 +6550,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7035,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7063,11 +6598,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7087,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7115,11 +6646,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7141,11 +6670,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7165,13 +6692,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7191,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>19</v>
-      </c>
-      <c r="G220" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7217,13 +6740,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>14</v>
-      </c>
-      <c r="G221" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7243,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>19</v>
-      </c>
-      <c r="G222" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7269,13 +6788,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
-      </c>
-      <c r="G223" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7295,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>19</v>
-      </c>
-      <c r="G224" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7321,13 +6836,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>14</v>
-      </c>
-      <c r="G225" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7349,11 +6862,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7375,11 +6886,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7401,11 +6910,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7425,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>19</v>
-      </c>
-      <c r="G229" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7451,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
-      </c>
-      <c r="G230" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7479,11 +6982,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7503,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7531,11 +7030,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7557,11 +7054,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7583,11 +7078,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7609,11 +7102,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>12</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7635,11 +7126,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7661,11 +7150,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>12</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7687,11 +7174,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7713,11 +7198,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>12</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7739,11 +7222,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7765,11 +7246,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>12</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7791,11 +7270,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7817,11 +7294,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>12</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7843,11 +7318,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7869,11 +7342,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>12</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7895,11 +7366,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7921,11 +7390,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7947,11 +7414,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7973,11 +7438,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7999,11 +7462,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8025,11 +7486,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8051,11 +7510,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8077,11 +7534,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8103,11 +7558,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8127,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8155,11 +7606,9 @@
       <c r="F257" t="s">
         <v>11</v>
       </c>
-      <c r="G257" t="s">
-        <v>12</v>
-      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8179,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>19</v>
-      </c>
-      <c r="G258" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8207,11 +7654,9 @@
       <c r="F259" t="s">
         <v>11</v>
       </c>
-      <c r="G259" t="s">
-        <v>12</v>
-      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8233,11 +7678,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8257,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>19</v>
-      </c>
-      <c r="G261" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8285,11 +7726,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8309,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>19</v>
-      </c>
-      <c r="G263" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8337,11 +7774,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8361,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>19</v>
-      </c>
-      <c r="G265" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8389,11 +7822,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8413,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>19</v>
-      </c>
-      <c r="G267" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8441,11 +7870,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8467,11 +7894,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8493,11 +7918,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>12</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8517,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>19</v>
-      </c>
-      <c r="G271" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8545,11 +7966,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>12</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8569,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>19</v>
-      </c>
-      <c r="G273" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8597,11 +8014,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>12</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8621,13 +8036,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8649,11 +8062,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>12</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8673,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>108</v>
-      </c>
-      <c r="G277" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8699,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>108</v>
-      </c>
-      <c r="G278" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8725,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8751,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>108</v>
-      </c>
-      <c r="G280" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8777,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>108</v>
-      </c>
-      <c r="G281" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8803,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>19</v>
-      </c>
-      <c r="G282" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8829,13 +8228,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>108</v>
-      </c>
-      <c r="G283" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8855,13 +8252,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>19</v>
-      </c>
-      <c r="G284" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8881,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>108</v>
-      </c>
-      <c r="G285" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8907,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>19</v>
-      </c>
-      <c r="G286" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8933,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>108</v>
-      </c>
-      <c r="G287" t="s">
-        <v>109</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8961,11 +8350,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>12</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8985,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>313</v>
-      </c>
-      <c r="G289" t="s">
-        <v>314</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9011,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>19</v>
-      </c>
-      <c r="G290" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9037,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>313</v>
-      </c>
-      <c r="G291" t="s">
-        <v>314</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9063,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>19</v>
-      </c>
-      <c r="G292" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9089,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>313</v>
-      </c>
-      <c r="G293" t="s">
-        <v>314</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9115,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>313</v>
-      </c>
-      <c r="G294" t="s">
-        <v>314</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9141,13 +8516,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>313</v>
-      </c>
-      <c r="G295" t="s">
-        <v>314</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9167,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>19</v>
-      </c>
-      <c r="G296" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9193,13 +8564,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>19</v>
-      </c>
-      <c r="G297" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9219,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>313</v>
-      </c>
-      <c r="G298" t="s">
-        <v>314</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9247,11 +8614,9 @@
       <c r="F299" t="s">
         <v>11</v>
       </c>
-      <c r="G299" t="s">
-        <v>12</v>
-      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9271,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>170</v>
-      </c>
-      <c r="G300" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9297,13 +8660,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>170</v>
-      </c>
-      <c r="G301" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9323,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>170</v>
-      </c>
-      <c r="G302" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9349,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>170</v>
-      </c>
-      <c r="G303" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9375,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>170</v>
-      </c>
-      <c r="G304" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9401,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>170</v>
-      </c>
-      <c r="G305" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9427,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>170</v>
-      </c>
-      <c r="G306" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9453,13 +8804,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>170</v>
-      </c>
-      <c r="G307" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9479,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>19</v>
-      </c>
-      <c r="G308" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9505,13 +8852,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>19</v>
-      </c>
-      <c r="G309" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9531,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>19</v>
-      </c>
-      <c r="G310" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9557,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>19</v>
-      </c>
-      <c r="G311" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9583,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>170</v>
-      </c>
-      <c r="G312" t="s">
-        <v>171</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9609,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>19</v>
-      </c>
-      <c r="G313" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9637,11 +8974,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>12</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9663,11 +8998,9 @@
       <c r="F315" t="s">
         <v>11</v>
       </c>
-      <c r="G315" t="s">
-        <v>12</v>
-      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9689,11 +9022,9 @@
       <c r="F316" t="s">
         <v>11</v>
       </c>
-      <c r="G316" t="s">
-        <v>12</v>
-      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9715,11 +9046,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9741,11 +9070,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>12</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9767,11 +9094,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>12</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9793,11 +9118,9 @@
       <c r="F320" t="s">
         <v>11</v>
       </c>
-      <c r="G320" t="s">
-        <v>12</v>
-      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9819,11 +9142,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9845,11 +9166,9 @@
       <c r="F322" t="s">
         <v>11</v>
       </c>
-      <c r="G322" t="s">
-        <v>12</v>
-      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9871,11 +9190,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9897,11 +9214,9 @@
       <c r="F324" t="s">
         <v>11</v>
       </c>
-      <c r="G324" t="s">
-        <v>12</v>
-      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9923,11 +9238,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9949,11 +9262,9 @@
       <c r="F326" t="s">
         <v>11</v>
       </c>
-      <c r="G326" t="s">
-        <v>12</v>
-      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9975,11 +9286,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>12</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10001,11 +9310,9 @@
       <c r="F328" t="s">
         <v>11</v>
       </c>
-      <c r="G328" t="s">
-        <v>12</v>
-      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10025,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>19</v>
-      </c>
-      <c r="G329" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10053,11 +9358,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10077,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>19</v>
-      </c>
-      <c r="G331" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10105,11 +9406,9 @@
       <c r="F332" t="s">
         <v>11</v>
       </c>
-      <c r="G332" t="s">
-        <v>12</v>
-      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10129,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>19</v>
-      </c>
-      <c r="G333" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10157,11 +9454,9 @@
       <c r="F334" t="s">
         <v>11</v>
       </c>
-      <c r="G334" t="s">
-        <v>12</v>
-      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10181,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>19</v>
-      </c>
-      <c r="G335" t="s">
-        <v>251</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10209,11 +9502,9 @@
       <c r="F336" t="s">
         <v>11</v>
       </c>
-      <c r="G336" t="s">
-        <v>12</v>
-      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10233,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>19</v>
-      </c>
-      <c r="G337" t="s">
-        <v>253</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10261,11 +9550,9 @@
       <c r="F338" t="s">
         <v>11</v>
       </c>
-      <c r="G338" t="s">
-        <v>12</v>
-      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10287,11 +9574,9 @@
       <c r="F339" t="s">
         <v>11</v>
       </c>
-      <c r="G339" t="s">
-        <v>12</v>
-      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10313,11 +9598,9 @@
       <c r="F340" t="s">
         <v>11</v>
       </c>
-      <c r="G340" t="s">
-        <v>12</v>
-      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10339,11 +9622,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10365,11 +9646,9 @@
       <c r="F342" t="s">
         <v>11</v>
       </c>
-      <c r="G342" t="s">
-        <v>12</v>
-      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10389,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>14</v>
-      </c>
-      <c r="G343" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10417,11 +9694,9 @@
       <c r="F344" t="s">
         <v>11</v>
       </c>
-      <c r="G344" t="s">
-        <v>12</v>
-      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
